--- a/测试文档/接口测试用例/功能测试用例.xlsx
+++ b/测试文档/接口测试用例/功能测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7620" activeTab="3"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="咨询、倾听、语音模块" sheetId="1" r:id="rId1"/>
@@ -927,45 +927,112 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -973,28 +1040,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1002,38 +1063,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1041,67 +1101,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1151,7 +1151,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,73 +1313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,91 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,8 +1342,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,16 +1379,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,6 +1397,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1401,188 +1436,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,57 +1637,62 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1947,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -1955,7 +1960,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1992,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="142.5" spans="1:7">
+    <row r="2" ht="135" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2016,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" ht="114.5" spans="1:5">
+    <row r="3" ht="108" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="56.5" spans="1:7">
+    <row r="4" ht="54" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2046,7 +2051,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" ht="86" spans="1:5">
+    <row r="5" ht="81" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="86" spans="1:5">
+    <row r="6" ht="81" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="100.5" spans="1:5">
+    <row r="7" ht="94.5" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -2097,7 +2102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="86" spans="1:5">
+    <row r="8" ht="81" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="129" spans="1:5">
+    <row r="9" ht="121.5" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="114.5" spans="1:6">
+    <row r="10" ht="108" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2149,7 +2154,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" ht="215.5" spans="1:5">
+    <row r="11" ht="202.5" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="286.5" spans="1:5">
+    <row r="12" ht="270" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="99.5" spans="1:5">
+    <row r="13" ht="94.5" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="99.5" spans="1:5">
+    <row r="14" ht="94.5" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="113.5" spans="1:5">
+    <row r="15" ht="108" spans="1:5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="243.5" spans="1:5">
+    <row r="16" ht="229.5" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -2251,7 +2256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="243.5" spans="1:5">
+    <row r="17" ht="229.5" spans="1:5">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="86" spans="1:5">
+    <row r="18" ht="81" spans="1:5">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" ht="100.5" spans="1:5">
+    <row r="19" ht="94.5" spans="1:5">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" ht="100.5" spans="1:5">
+    <row r="20" ht="94.5" spans="1:5">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" ht="115" spans="1:5">
+    <row r="21" ht="108" spans="1:5">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" ht="71.5" spans="1:5">
+    <row r="22" ht="67.5" spans="1:5">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="186.5" spans="1:5">
+    <row r="23" ht="175.5" spans="1:5">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" ht="72.5" spans="1:5">
+    <row r="24" ht="67.5" spans="1:5">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2394,7 +2399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -2402,7 +2407,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2456,7 +2461,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" ht="85.5" spans="1:5">
+    <row r="3" ht="81" spans="1:5">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" ht="42.5" spans="1:5">
+    <row r="4" ht="40.5" spans="1:5">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:5">
+    <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" ht="71.5" spans="1:5">
+    <row r="6" ht="67.5" spans="1:5">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="100" spans="1:5">
+    <row r="7" ht="94.5" spans="1:5">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" ht="57.5" spans="1:5">
+    <row r="8" ht="54" spans="1:5">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" ht="57.5" spans="1:6">
+    <row r="9" ht="54" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" ht="57.5" spans="1:5">
+    <row r="10" ht="54" spans="1:5">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" ht="57.5" spans="1:5">
+    <row r="11" ht="54" spans="1:5">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" ht="128.5" spans="1:5">
+    <row r="12" ht="121.5" spans="1:5">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" ht="100.5" spans="1:6">
+    <row r="13" ht="94.5" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" ht="114.5" spans="1:5">
+    <row r="14" ht="108" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" ht="86.5" spans="1:5">
+    <row r="15" ht="81" spans="1:5">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" ht="71.5" spans="1:5">
+    <row r="16" ht="67.5" spans="1:5">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" ht="86.5" spans="1:5">
+    <row r="17" ht="81" spans="1:5">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" ht="115.5" spans="1:5">
+    <row r="18" ht="108" spans="1:5">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" ht="145" spans="1:5">
+    <row r="19" ht="135" spans="1:5">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2781,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -2789,7 +2794,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2843,7 +2848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" ht="85.5" spans="1:5">
+    <row r="3" ht="81" spans="1:5">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" ht="130" spans="1:5">
+    <row r="5" ht="121.5" spans="1:5">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" ht="115.5" spans="1:5">
+    <row r="6" ht="108" spans="1:5">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" ht="158.5" spans="1:5">
+    <row r="7" ht="148.5" spans="1:5">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -2972,7 +2977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -2980,7 +2985,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -3017,7 +3022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="43" spans="1:5">
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" ht="142.5" spans="1:5">
+    <row r="3" ht="135" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" ht="130" spans="1:5">
+    <row r="4" ht="121.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" ht="187" spans="1:5">
+    <row r="5" ht="175.5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" ht="187" spans="1:5">
+    <row r="6" ht="175.5" spans="1:5">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" ht="144.5" spans="1:5">
+    <row r="7" ht="135" spans="1:5">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" ht="130.5" spans="1:5">
+    <row r="8" ht="135" spans="1:5">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="159" spans="1:5">
+    <row r="9" ht="148.5" spans="1:5">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" ht="216.5" spans="1:5">
+    <row r="10" ht="202.5" spans="1:5">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" ht="101" spans="1:5">
+    <row r="11" ht="94.5" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" ht="115.5" spans="1:5">
+    <row r="12" ht="108" spans="1:5">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -3204,7 +3209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" ht="130" spans="1:5">
+    <row r="13" ht="121.5" spans="1:5">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" ht="115" spans="1:5">
+    <row r="14" ht="108" spans="1:5">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" ht="100.5" spans="1:5">
+    <row r="15" ht="94.5" spans="1:5">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" ht="101" spans="1:5">
+    <row r="16" ht="94.5" spans="1:5">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3272,7 +3277,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:5">
+    <row r="17" ht="27" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>161</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="1:5">
+    <row r="18" ht="27" spans="1:5">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" ht="71.5" spans="1:5">
+    <row r="19" ht="67.5" spans="1:5">
       <c r="A19" t="s">
         <v>161</v>
       </c>
